--- a/report.xlsx
+++ b/report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -441,11 +441,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="31" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="34" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="1.5" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,7 +461,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - Программист</t>
+          <t>Средняя зарплата - Аналитик</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Количество вакансий - Программист</t>
+          <t>Количество вакансий - Аналитик</t>
         </is>
       </c>
     </row>
@@ -483,13 +483,13 @@
         <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43770</v>
+        <v>40641</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>317</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -500,13 +500,13 @@
         <v>43646</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>50412</v>
+        <v>48428</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2460</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>46699</v>
+        <v>48109</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2066</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -534,13 +534,13 @@
         <v>43846</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>50570</v>
+        <v>49577</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3614</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6">
@@ -551,13 +551,13 @@
         <v>47451</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>55770</v>
+        <v>52794</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7">
@@ -568,13 +568,13 @@
         <v>48243</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>57960</v>
+        <v>58341</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4966</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8">
@@ -585,13 +585,13 @@
         <v>51510</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>58804</v>
+        <v>57004</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>5990</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9">
@@ -602,13 +602,13 @@
         <v>50658</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>62384</v>
+        <v>58768</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>5492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -619,13 +619,13 @@
         <v>52696</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>62322</v>
+        <v>53326</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5375</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         <v>62675</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>66817</v>
+        <v>54236</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>7219</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12">
@@ -653,13 +653,13 @@
         <v>60935</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>72460</v>
+        <v>56558</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>8105</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="13">
@@ -670,13 +670,13 @@
         <v>58335</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>76879</v>
+        <v>61080</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>10062</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="14">
@@ -687,13 +687,13 @@
         <v>69467</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>85300</v>
+        <v>71288</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>9016</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="15">
@@ -704,13 +704,13 @@
         <v>73431</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>89791</v>
+        <v>80145</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>7113</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="16">
@@ -721,13 +721,13 @@
         <v>82690</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>100987</v>
+        <v>87473</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>3466</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17">
@@ -738,13 +738,13 @@
         <v>91795</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>116651</v>
+        <v>91340</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1115</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -766,11 +766,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="1.5" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
